--- a/upload/excel/2505_동항중_발주서_이가에프엔비_업로드용.xlsx
+++ b/upload/excel/2505_동항중_발주서_이가에프엔비_업로드용.xlsx
@@ -553,7 +553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:AC16"/>
+  <dimension ref="A1:AD16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,6 +561,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1"/>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
@@ -726,6 +727,11 @@
       <c r="AC5" s="2" t="inlineStr">
         <is>
           <t>총량</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>계약단가</t>
         </is>
       </c>
     </row>
@@ -795,6 +801,9 @@
           <t>12</t>
         </is>
       </c>
+      <c r="AD6" t="n">
+        <v>10100</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -857,6 +866,9 @@
         <is>
           <t>7</t>
         </is>
+      </c>
+      <c r="AD7" t="n">
+        <v>10000</v>
       </c>
     </row>
     <row r="8">
@@ -921,6 +933,9 @@
           <t>24</t>
         </is>
       </c>
+      <c r="AD8" t="n">
+        <v>11000</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -983,6 +998,9 @@
         <is>
           <t>35</t>
         </is>
+      </c>
+      <c r="AD9" t="n">
+        <v>11000</v>
       </c>
     </row>
     <row r="10">
@@ -1046,6 +1064,9 @@
         <is>
           <t>7</t>
         </is>
+      </c>
+      <c r="AD10" t="n">
+        <v>11000</v>
       </c>
     </row>
     <row r="11">
@@ -1110,6 +1131,9 @@
           <t>20</t>
         </is>
       </c>
+      <c r="AD11" t="n">
+        <v>11000</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="inlineStr">
@@ -1173,6 +1197,9 @@
           <t>15</t>
         </is>
       </c>
+      <c r="AD12" t="n">
+        <v>8650</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
@@ -1236,6 +1263,9 @@
           <t>15</t>
         </is>
       </c>
+      <c r="AD13" t="n">
+        <v>8650</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
@@ -1299,6 +1329,9 @@
           <t>6</t>
         </is>
       </c>
+      <c r="AD14" t="n">
+        <v>36000</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
@@ -1362,6 +1395,9 @@
           <t>6</t>
         </is>
       </c>
+      <c r="AD15" t="n">
+        <v>36000</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="inlineStr"/>
